--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -408,7 +408,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -416,34 +416,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.7578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3089,273 +3090,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD1DE8E7-1924-4308-9A14-3EECAA72495A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A548BF0-6F1B-44A1-8643-2CEBD39693E3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{855DC3BE-8182-48C9-A45B-DDF013D333FD}"/>
 </file>
--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
@@ -107,6 +119,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -345,6 +360,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -433,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,6 +463,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,325 +485,376 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -806,2285 +876,2630 @@
       <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,79 +32,82 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -877,2629 +880,2629 @@
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -68,6 +68,9 @@
     <t>SI</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -365,7 +368,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -466,7 +469,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -586,10 +589,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -609,7 +612,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -632,7 +635,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -655,7 +658,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -678,7 +681,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -701,13 +704,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -724,13 +727,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -747,7 +750,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -770,7 +773,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -816,7 +819,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -839,7 +842,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
@@ -861,2648 +864,2671 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>36</v>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>14</t>
@@ -457,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -710,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -733,7 +730,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -864,2671 +861,2648 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G122" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1506,22 +1512,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>36</v>
@@ -1529,22 +1535,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>36</v>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1650,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1667,22 +1673,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>36</v>
@@ -1690,22 +1696,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>36</v>
@@ -1713,22 +1719,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>36</v>
@@ -1736,22 +1742,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>36</v>
@@ -1759,22 +1765,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>36</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,22 +1857,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>36</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1897,22 +1903,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>36</v>
@@ -1920,22 +1926,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>36</v>
@@ -1943,22 +1949,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>36</v>
@@ -1966,22 +1972,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>36</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2012,22 +2018,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>36</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,22 +2064,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>36</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,22 +2179,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>36</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>22</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2265,22 +2271,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>36</v>
@@ -2288,22 +2294,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>36</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2357,22 +2363,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>36</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2403,22 +2409,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>36</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>22</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2472,22 +2478,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>36</v>
@@ -2495,22 +2501,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>36</v>
@@ -2521,16 +2527,16 @@
         <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2544,7 +2550,7 @@
         <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2553,7 +2559,7 @@
         <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2567,16 +2573,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2587,10 +2593,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2599,7 +2605,7 @@
         <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2656,16 +2662,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>103</v>
@@ -2679,10 +2685,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
@@ -2691,7 +2697,7 @@
         <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2840,10 +2846,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2852,7 +2858,7 @@
         <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2863,10 +2869,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2875,7 +2881,7 @@
         <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2886,10 +2892,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2898,7 +2904,7 @@
         <v>98</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2909,599 +2915,691 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -299,6 +299,9 @@
     <t>14,15,16</t>
   </si>
   <si>
+    <t>14,15</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -371,7 +374,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -472,7 +478,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1987,7 +1993,7 @@
         <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>36</v>
@@ -2064,7 +2070,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>45</v>
@@ -2073,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>47</v>
@@ -2087,7 +2093,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>48</v>
@@ -2096,7 +2102,7 @@
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>49</v>
@@ -2110,7 +2116,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>50</v>
@@ -2119,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>51</v>
@@ -2133,7 +2139,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>52</v>
@@ -2142,7 +2148,7 @@
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>53</v>
@@ -2156,7 +2162,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>54</v>
@@ -2165,7 +2171,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>55</v>
@@ -2179,7 +2185,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>56</v>
@@ -2188,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>57</v>
@@ -2202,7 +2208,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>58</v>
@@ -2211,7 +2217,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>59</v>
@@ -2225,7 +2231,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>60</v>
@@ -2234,7 +2240,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>61</v>
@@ -2248,7 +2254,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>62</v>
@@ -2257,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>63</v>
@@ -2271,7 +2277,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>64</v>
@@ -2280,7 +2286,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>65</v>
@@ -2294,7 +2300,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>66</v>
@@ -2303,7 +2309,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>67</v>
@@ -2317,7 +2323,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>68</v>
@@ -2326,7 +2332,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>69</v>
@@ -2340,7 +2346,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>70</v>
@@ -2349,7 +2355,7 @@
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>71</v>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>72</v>
@@ -2372,7 +2378,7 @@
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>73</v>
@@ -2386,7 +2392,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>74</v>
@@ -2395,7 +2401,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>75</v>
@@ -2409,7 +2415,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>76</v>
@@ -2418,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>77</v>
@@ -2432,7 +2438,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>78</v>
@@ -2441,7 +2447,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>79</v>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>80</v>
@@ -2464,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>81</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>82</v>
@@ -2487,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>83</v>
@@ -2501,7 +2507,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>84</v>
@@ -2510,7 +2516,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>85</v>
@@ -2524,7 +2530,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>86</v>
@@ -2533,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>87</v>
@@ -2547,7 +2553,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -2556,7 +2562,7 @@
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>89</v>
@@ -2570,7 +2576,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>90</v>
@@ -2579,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>91</v>
@@ -2593,7 +2599,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>45</v>
@@ -2602,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>47</v>
@@ -2616,7 +2622,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>48</v>
@@ -2625,7 +2631,7 @@
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>49</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2685,7 +2691,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>50</v>
@@ -2694,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>51</v>
@@ -2708,7 +2714,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>52</v>
@@ -2717,7 +2723,7 @@
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>53</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2777,7 +2783,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>54</v>
@@ -2786,7 +2792,7 @@
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>55</v>
@@ -2800,16 +2806,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>57</v>
@@ -2823,7 +2829,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>58</v>
@@ -2832,7 +2838,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>59</v>
@@ -2846,16 +2852,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>61</v>
@@ -2869,7 +2875,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>62</v>
@@ -2878,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>63</v>
@@ -2892,7 +2898,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>64</v>
@@ -2901,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>65</v>
@@ -2915,19 +2921,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2984,7 +2990,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>45</v>
@@ -2993,21 +2999,21 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>48</v>
@@ -3016,7 +3022,7 @@
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>49</v>
@@ -3025,12 +3031,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>50</v>
@@ -3039,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>51</v>
@@ -3048,12 +3054,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>52</v>
@@ -3062,7 +3068,7 @@
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>53</v>
@@ -3071,12 +3077,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>54</v>
@@ -3085,7 +3091,7 @@
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>55</v>
@@ -3094,12 +3100,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>56</v>
@@ -3108,7 +3114,7 @@
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>57</v>
@@ -3117,12 +3123,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>58</v>
@@ -3131,7 +3137,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>59</v>
@@ -3140,12 +3146,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>60</v>
@@ -3154,21 +3160,21 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>62</v>
@@ -3177,7 +3183,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>63</v>
@@ -3186,12 +3192,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>64</v>
@@ -3200,21 +3206,21 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>66</v>
@@ -3223,21 +3229,21 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>68</v>
@@ -3246,7 +3252,7 @@
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>69</v>
@@ -3255,12 +3261,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>70</v>
@@ -3269,7 +3275,7 @@
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>71</v>
@@ -3278,12 +3284,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>72</v>
@@ -3292,7 +3298,7 @@
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>73</v>
@@ -3301,12 +3307,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>74</v>
@@ -3315,7 +3321,7 @@
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>75</v>
@@ -3324,12 +3330,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>76</v>
@@ -3338,7 +3344,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>77</v>
@@ -3347,12 +3353,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>78</v>
@@ -3361,21 +3367,21 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>80</v>
@@ -3384,7 +3390,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>81</v>
@@ -3393,12 +3399,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>82</v>
@@ -3407,21 +3413,21 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>84</v>
@@ -3430,21 +3436,21 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>86</v>
@@ -3453,7 +3459,7 @@
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>87</v>
@@ -3462,12 +3468,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>88</v>
@@ -3476,7 +3482,7 @@
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>89</v>
@@ -3485,21 +3491,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>91</v>
@@ -3508,24 +3514,24 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3536,19 +3542,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>26</v>
@@ -3559,10 +3565,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
@@ -3571,7 +3577,7 @@
         <v>34</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3588,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -299,9 +299,6 @@
     <t>14,15,16</t>
   </si>
   <si>
-    <t>14,15</t>
-  </si>
-  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -1993,7 +1987,7 @@
         <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>36</v>
@@ -2070,7 +2064,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>45</v>
@@ -2079,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>47</v>
@@ -2093,7 +2087,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>48</v>
@@ -2102,7 +2096,7 @@
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>49</v>
@@ -2116,7 +2110,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>50</v>
@@ -2125,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>51</v>
@@ -2139,7 +2133,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>52</v>
@@ -2148,7 +2142,7 @@
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>53</v>
@@ -2162,7 +2156,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>54</v>
@@ -2171,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>55</v>
@@ -2185,7 +2179,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>56</v>
@@ -2194,7 +2188,7 @@
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>57</v>
@@ -2208,7 +2202,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>58</v>
@@ -2217,7 +2211,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>59</v>
@@ -2231,7 +2225,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>60</v>
@@ -2240,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>61</v>
@@ -2254,7 +2248,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>62</v>
@@ -2263,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>63</v>
@@ -2277,7 +2271,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>64</v>
@@ -2286,7 +2280,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>65</v>
@@ -2300,7 +2294,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>66</v>
@@ -2309,7 +2303,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>67</v>
@@ -2323,7 +2317,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>68</v>
@@ -2332,7 +2326,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>69</v>
@@ -2346,7 +2340,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>70</v>
@@ -2355,7 +2349,7 @@
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>71</v>
@@ -2369,7 +2363,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>72</v>
@@ -2378,7 +2372,7 @@
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>73</v>
@@ -2392,7 +2386,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>74</v>
@@ -2401,7 +2395,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>75</v>
@@ -2415,7 +2409,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>76</v>
@@ -2424,7 +2418,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>77</v>
@@ -2438,7 +2432,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>78</v>
@@ -2447,7 +2441,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>79</v>
@@ -2461,7 +2455,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>80</v>
@@ -2470,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>81</v>
@@ -2484,7 +2478,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>82</v>
@@ -2493,7 +2487,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>83</v>
@@ -2507,7 +2501,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>84</v>
@@ -2516,7 +2510,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>85</v>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>86</v>
@@ -2539,7 +2533,7 @@
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>87</v>
@@ -2553,7 +2547,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -2562,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>89</v>
@@ -2576,7 +2570,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>90</v>
@@ -2585,7 +2579,7 @@
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>91</v>
@@ -2599,7 +2593,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>45</v>
@@ -2608,7 +2602,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>47</v>
@@ -2622,7 +2616,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>48</v>
@@ -2631,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>49</v>
@@ -2645,19 +2639,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2662,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2691,7 +2685,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>50</v>
@@ -2700,7 +2694,7 @@
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>51</v>
@@ -2714,7 +2708,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>52</v>
@@ -2723,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>53</v>
@@ -2737,19 +2731,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2754,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2783,7 +2777,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>54</v>
@@ -2792,7 +2786,7 @@
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>55</v>
@@ -2806,16 +2800,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>57</v>
@@ -2829,7 +2823,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>58</v>
@@ -2838,7 +2832,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>59</v>
@@ -2852,16 +2846,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>61</v>
@@ -2875,7 +2869,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>62</v>
@@ -2884,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>63</v>
@@ -2898,7 +2892,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>64</v>
@@ -2907,7 +2901,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>65</v>
@@ -2921,19 +2915,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2938,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2961,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2990,7 +2984,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>45</v>
@@ -2999,21 +2993,21 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>48</v>
@@ -3022,7 +3016,7 @@
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>49</v>
@@ -3031,12 +3025,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>50</v>
@@ -3045,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>51</v>
@@ -3054,12 +3048,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>52</v>
@@ -3068,7 +3062,7 @@
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>53</v>
@@ -3077,12 +3071,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>54</v>
@@ -3091,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>55</v>
@@ -3100,12 +3094,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>56</v>
@@ -3114,7 +3108,7 @@
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>57</v>
@@ -3123,12 +3117,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>58</v>
@@ -3137,7 +3131,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>59</v>
@@ -3146,12 +3140,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>60</v>
@@ -3160,21 +3154,21 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>62</v>
@@ -3183,7 +3177,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>63</v>
@@ -3192,12 +3186,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>64</v>
@@ -3206,21 +3200,21 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>66</v>
@@ -3229,21 +3223,21 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>68</v>
@@ -3252,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>69</v>
@@ -3261,12 +3255,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>70</v>
@@ -3275,7 +3269,7 @@
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>71</v>
@@ -3284,12 +3278,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>72</v>
@@ -3298,7 +3292,7 @@
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>73</v>
@@ -3307,12 +3301,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>74</v>
@@ -3321,7 +3315,7 @@
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>75</v>
@@ -3330,12 +3324,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>76</v>
@@ -3344,7 +3338,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>77</v>
@@ -3353,12 +3347,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>78</v>
@@ -3367,21 +3361,21 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>80</v>
@@ -3390,7 +3384,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>81</v>
@@ -3399,12 +3393,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>82</v>
@@ -3413,21 +3407,21 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>84</v>
@@ -3436,21 +3430,21 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>86</v>
@@ -3459,7 +3453,7 @@
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>87</v>
@@ -3468,12 +3462,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>88</v>
@@ -3482,7 +3476,7 @@
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>89</v>
@@ -3491,21 +3485,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>91</v>
@@ -3514,24 +3508,24 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3536,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>26</v>
@@ -3565,10 +3559,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
@@ -3577,7 +3571,7 @@
         <v>34</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3588,19 +3582,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -299,6 +299,9 @@
     <t>14,15,16</t>
   </si>
   <si>
+    <t>14,15</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -372,6 +375,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -1987,7 +1993,7 @@
         <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>36</v>
@@ -2064,7 +2070,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>45</v>
@@ -2073,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>47</v>
@@ -2087,7 +2093,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>48</v>
@@ -2096,7 +2102,7 @@
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>49</v>
@@ -2110,7 +2116,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>50</v>
@@ -2119,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>51</v>
@@ -2133,7 +2139,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>52</v>
@@ -2142,7 +2148,7 @@
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>53</v>
@@ -2156,7 +2162,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>54</v>
@@ -2165,7 +2171,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>55</v>
@@ -2179,7 +2185,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>56</v>
@@ -2188,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>57</v>
@@ -2202,7 +2208,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>58</v>
@@ -2211,7 +2217,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>59</v>
@@ -2225,7 +2231,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>60</v>
@@ -2234,7 +2240,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>61</v>
@@ -2248,7 +2254,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>62</v>
@@ -2257,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>63</v>
@@ -2271,7 +2277,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>64</v>
@@ -2280,7 +2286,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>65</v>
@@ -2294,7 +2300,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>66</v>
@@ -2303,7 +2309,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>67</v>
@@ -2317,7 +2323,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>68</v>
@@ -2326,7 +2332,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>69</v>
@@ -2340,7 +2346,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>70</v>
@@ -2349,7 +2355,7 @@
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>71</v>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>72</v>
@@ -2372,7 +2378,7 @@
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>73</v>
@@ -2386,7 +2392,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>74</v>
@@ -2395,7 +2401,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>75</v>
@@ -2409,7 +2415,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>76</v>
@@ -2418,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>77</v>
@@ -2432,7 +2438,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>78</v>
@@ -2441,7 +2447,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>79</v>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>80</v>
@@ -2464,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>81</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>82</v>
@@ -2487,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>83</v>
@@ -2501,7 +2507,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>84</v>
@@ -2510,7 +2516,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>85</v>
@@ -2524,7 +2530,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>86</v>
@@ -2533,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>87</v>
@@ -2547,7 +2553,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -2556,7 +2562,7 @@
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>89</v>
@@ -2570,7 +2576,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>90</v>
@@ -2579,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>91</v>
@@ -2593,7 +2599,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>45</v>
@@ -2602,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>47</v>
@@ -2616,7 +2622,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>48</v>
@@ -2625,7 +2631,7 @@
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>49</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2685,7 +2691,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>50</v>
@@ -2694,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>51</v>
@@ -2708,7 +2714,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>52</v>
@@ -2717,7 +2723,7 @@
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>53</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2777,7 +2783,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>54</v>
@@ -2786,7 +2792,7 @@
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>55</v>
@@ -2800,16 +2806,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>57</v>
@@ -2823,7 +2829,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>58</v>
@@ -2832,7 +2838,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>59</v>
@@ -2846,16 +2852,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>61</v>
@@ -2869,7 +2875,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>62</v>
@@ -2878,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>63</v>
@@ -2892,7 +2898,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>64</v>
@@ -2901,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>65</v>
@@ -2915,19 +2921,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2984,7 +2990,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>45</v>
@@ -2993,21 +2999,21 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>48</v>
@@ -3016,7 +3022,7 @@
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>49</v>
@@ -3025,12 +3031,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>50</v>
@@ -3039,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>51</v>
@@ -3048,12 +3054,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>52</v>
@@ -3062,7 +3068,7 @@
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>53</v>
@@ -3071,12 +3077,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>54</v>
@@ -3085,7 +3091,7 @@
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>55</v>
@@ -3094,12 +3100,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>56</v>
@@ -3108,7 +3114,7 @@
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>57</v>
@@ -3117,12 +3123,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>58</v>
@@ -3131,7 +3137,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>59</v>
@@ -3140,12 +3146,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>60</v>
@@ -3154,21 +3160,21 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>62</v>
@@ -3177,7 +3183,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>63</v>
@@ -3186,12 +3192,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>64</v>
@@ -3200,21 +3206,21 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>66</v>
@@ -3223,21 +3229,21 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>68</v>
@@ -3246,7 +3252,7 @@
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>69</v>
@@ -3255,12 +3261,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>70</v>
@@ -3269,7 +3275,7 @@
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>71</v>
@@ -3278,12 +3284,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>72</v>
@@ -3292,7 +3298,7 @@
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>73</v>
@@ -3301,12 +3307,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>74</v>
@@ -3315,7 +3321,7 @@
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>75</v>
@@ -3324,12 +3330,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>76</v>
@@ -3338,7 +3344,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>77</v>
@@ -3347,12 +3353,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>78</v>
@@ -3361,21 +3367,21 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>80</v>
@@ -3384,7 +3390,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>81</v>
@@ -3393,12 +3399,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>82</v>
@@ -3407,21 +3413,21 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>84</v>
@@ -3430,21 +3436,21 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>86</v>
@@ -3453,7 +3459,7 @@
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>87</v>
@@ -3462,12 +3468,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>88</v>
@@ -3476,7 +3482,7 @@
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>89</v>
@@ -3485,21 +3491,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>91</v>
@@ -3508,24 +3514,24 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3536,19 +3542,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>26</v>
@@ -3559,10 +3565,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
@@ -3571,7 +3577,7 @@
         <v>34</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3588,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,36 @@
   </si>
   <si>
     <t>14,15</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -466,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -476,7 +506,7 @@
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2070,22 +2100,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>36</v>
@@ -2093,22 +2123,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>36</v>
@@ -2116,19 +2146,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2139,22 +2169,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>36</v>
@@ -2162,22 +2192,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>36</v>
@@ -2185,22 +2215,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>36</v>
@@ -2208,19 +2238,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2231,22 +2261,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>36</v>
@@ -2254,19 +2284,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2277,22 +2307,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>36</v>
@@ -2300,22 +2330,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>36</v>
@@ -2323,19 +2353,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2346,22 +2376,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>36</v>
@@ -2369,19 +2399,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2392,22 +2422,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>36</v>
@@ -2415,22 +2445,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>36</v>
@@ -2438,22 +2468,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>36</v>
@@ -2461,19 +2491,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2484,22 +2514,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>36</v>
@@ -2507,22 +2537,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>36</v>
@@ -2530,19 +2560,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2553,22 +2583,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>36</v>
@@ -2576,19 +2606,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2599,22 +2629,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>36</v>
@@ -2622,22 +2652,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>36</v>
@@ -2645,19 +2675,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2698,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2721,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2744,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2737,22 +2767,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>36</v>
@@ -2760,19 +2790,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2783,22 +2813,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>36</v>
@@ -2806,22 +2836,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>36</v>
@@ -2829,19 +2859,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2882,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2905,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2928,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2951,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2974,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2967,16 +2997,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>116</v>
@@ -2990,622 +3020,944 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E136" s="2" t="s">
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -218,13 +224,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1571,22 +1577,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>36</v>
@@ -1594,22 +1600,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>36</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1732,22 +1738,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>36</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1778,22 +1784,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>36</v>
@@ -1801,22 +1807,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>36</v>
@@ -1824,22 +1830,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -1847,22 +1853,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>36</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,22 +1945,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>36</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1985,22 +1991,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>36</v>
@@ -2008,22 +2014,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>36</v>
@@ -2031,22 +2037,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>36</v>
@@ -2054,22 +2060,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>36</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2123,22 +2129,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>36</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2169,22 +2175,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>36</v>
@@ -2192,22 +2198,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>36</v>
@@ -2215,22 +2221,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>36</v>
@@ -2238,22 +2244,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>36</v>
@@ -2261,22 +2267,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>36</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2376,22 +2382,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>36</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2422,22 +2428,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>36</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>22</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2491,22 +2497,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>36</v>
@@ -2514,22 +2520,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>36</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2589,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>36</v>
@@ -2606,19 +2612,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2629,22 +2635,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>36</v>
@@ -2652,19 +2658,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>22</v>
@@ -2675,19 +2681,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2698,22 +2704,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>36</v>
@@ -2721,22 +2727,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>36</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2767,22 +2773,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>36</v>
@@ -2790,19 +2796,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2813,22 +2819,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>36</v>
@@ -2836,19 +2842,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>22</v>
@@ -2862,7 +2868,7 @@
         <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2871,7 +2877,7 @@
         <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2891,19 @@
         <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>36</v>
@@ -2908,19 +2914,19 @@
         <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>36</v>
@@ -2928,10 +2934,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2940,7 +2946,7 @@
         <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2980,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2997,16 +3003,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>116</v>
@@ -3020,19 +3026,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3049,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3072,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3118,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3141,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3164,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3181,10 +3187,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3193,7 +3199,7 @@
         <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3210,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3233,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3250,19 +3256,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3273,19 +3279,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3296,10 +3302,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3308,7 +3314,7 @@
         <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3319,10 +3325,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3331,7 +3337,7 @@
         <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3342,622 +3348,737 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B150" s="2" t="s">
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1600,22 +1606,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>36</v>
@@ -1623,22 +1629,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>36</v>
@@ -1646,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,22 +1790,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>36</v>
@@ -1807,22 +1813,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>36</v>
@@ -1830,22 +1836,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -1853,22 +1859,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>36</v>
@@ -1876,22 +1882,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>36</v>
@@ -1899,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,22 +1951,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>36</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,22 +1997,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>36</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,22 +2043,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>36</v>
@@ -2060,22 +2066,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>36</v>
@@ -2083,22 +2089,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>36</v>
@@ -2106,22 +2112,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>36</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,22 +2181,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>36</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,22 +2227,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>36</v>
@@ -2244,22 +2250,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>36</v>
@@ -2267,22 +2273,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>36</v>
@@ -2290,22 +2296,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>36</v>
@@ -2313,22 +2319,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>36</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,22 +2457,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>36</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>22</v>
@@ -2520,22 +2526,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>36</v>
@@ -2543,22 +2549,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>36</v>
@@ -2566,22 +2572,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>36</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,22 +2641,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>36</v>
@@ -2658,22 +2664,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>36</v>
@@ -2681,22 +2687,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>36</v>
@@ -2704,22 +2710,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>36</v>
@@ -2727,19 +2733,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>22</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,22 +2779,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>36</v>
@@ -2796,22 +2802,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>36</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2842,22 +2848,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>36</v>
@@ -2865,19 +2871,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,22 +2894,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>36</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>22</v>
@@ -2937,7 +2943,7 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2946,7 +2952,7 @@
         <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2966,19 @@
         <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>36</v>
@@ -2983,19 +2989,19 @@
         <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>36</v>
@@ -3003,10 +3009,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3015,7 +3021,7 @@
         <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3032,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3101,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,10 +3124,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3130,7 +3136,7 @@
         <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3141,19 +3147,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3164,19 +3170,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3187,19 +3193,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3210,19 +3216,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3233,19 +3239,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3256,19 +3262,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3279,10 +3285,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3291,7 +3297,7 @@
         <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3302,19 +3308,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3325,19 +3331,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3348,19 +3354,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3394,10 +3400,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3406,7 +3412,7 @@
         <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3417,10 +3423,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3429,7 +3435,7 @@
         <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3440,645 +3446,737 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B155" s="2" t="s">
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1629,22 +1635,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>36</v>
@@ -1652,22 +1658,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>36</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,22 +1819,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>36</v>
@@ -1836,22 +1842,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -1859,22 +1865,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>36</v>
@@ -1882,22 +1888,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>36</v>
@@ -1905,22 +1911,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>36</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,22 +1957,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>36</v>
@@ -1974,22 +1980,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>36</v>
@@ -1997,22 +2003,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>36</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,22 +2049,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>36</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,22 +2095,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>36</v>
@@ -2112,22 +2118,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>36</v>
@@ -2135,22 +2141,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>36</v>
@@ -2158,22 +2164,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>36</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,22 +2233,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>36</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,22 +2279,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>36</v>
@@ -2296,22 +2302,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>36</v>
@@ -2319,22 +2325,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>36</v>
@@ -2342,22 +2348,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>36</v>
@@ -2365,22 +2371,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>36</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,22 +2509,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>36</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>22</v>
@@ -2572,22 +2578,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>36</v>
@@ -2595,22 +2601,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>36</v>
@@ -2618,22 +2624,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>36</v>
@@ -2641,22 +2647,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>36</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>22</v>
@@ -2710,22 +2716,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>36</v>
@@ -2733,22 +2739,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>36</v>
@@ -2756,22 +2762,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>36</v>
@@ -2779,22 +2785,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>36</v>
@@ -2802,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>22</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2848,22 +2854,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>36</v>
@@ -2871,22 +2877,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>36</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2917,22 +2923,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>36</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2963,22 +2969,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>36</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>22</v>
@@ -3012,7 +3018,7 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3021,7 +3027,7 @@
         <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3041,19 @@
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>36</v>
@@ -3058,19 +3064,19 @@
         <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>36</v>
@@ -3078,10 +3084,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3090,7 +3096,7 @@
         <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3124,19 +3130,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3147,19 +3153,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3193,10 +3199,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
@@ -3205,7 +3211,7 @@
         <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3216,19 +3222,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3262,19 +3268,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3285,19 +3291,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3308,19 +3314,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3331,19 +3337,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3354,10 +3360,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3366,7 +3372,7 @@
         <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3377,19 +3383,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3400,19 +3406,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3423,19 +3429,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3446,19 +3452,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3469,10 +3475,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3481,7 +3487,7 @@
         <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3492,10 +3498,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3504,7 +3510,7 @@
         <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3515,668 +3521,760 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B159" s="2" t="s">
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -143,6 +143,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -218,9 +308,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -308,6 +395,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -365,9 +461,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -425,9 +518,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -456,6 +546,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -514,16 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -1040,22 +1136,22 @@
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -1063,22 +1159,22 @@
         <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -1086,22 +1182,22 @@
         <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -1109,22 +1205,22 @@
         <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1132,22 +1228,22 @@
         <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
@@ -1155,22 +1251,22 @@
         <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1178,22 +1274,22 @@
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -1201,22 +1297,22 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -1224,22 +1320,22 @@
         <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1247,22 +1343,22 @@
         <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
@@ -1270,22 +1366,22 @@
         <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
@@ -1293,22 +1389,22 @@
         <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -1316,39 +1412,39 @@
         <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1359,19 +1455,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1382,19 +1478,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1405,19 +1501,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1428,19 +1524,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1451,19 +1547,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1474,19 +1570,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1497,19 +1593,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1520,19 +1616,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1639,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1662,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1685,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1708,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1731,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1658,22 +1754,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>36</v>
@@ -1681,19 +1777,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1800,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1823,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1846,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1869,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1892,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1915,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1842,22 +1938,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -1865,19 +1961,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,22 +1984,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>36</v>
@@ -1911,22 +2007,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>36</v>
@@ -1934,19 +2030,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,620 +2053,620 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>36</v>
@@ -2578,19 +2674,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,22 +2697,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>36</v>
@@ -2624,22 +2720,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>36</v>
@@ -2647,19 +2743,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2766,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,22 +2789,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>36</v>
@@ -2716,22 +2812,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>36</v>
@@ -2739,22 +2835,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>36</v>
@@ -2762,22 +2858,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>36</v>
@@ -2785,22 +2881,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>36</v>
@@ -2808,22 +2904,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>36</v>
@@ -2831,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2854,22 +2950,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>36</v>
@@ -2877,22 +2973,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>36</v>
@@ -2900,22 +2996,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>36</v>
@@ -2923,19 +3019,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,22 +3042,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>36</v>
@@ -2969,19 +3065,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,22 +3088,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>36</v>
@@ -3015,19 +3111,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3038,22 +3134,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>36</v>
@@ -3061,22 +3157,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>36</v>
@@ -3084,19 +3180,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3203,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3226,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3249,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3176,22 +3272,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>36</v>
@@ -3199,19 +3295,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,22 +3318,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>36</v>
@@ -3245,22 +3341,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>36</v>
@@ -3268,22 +3364,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>36</v>
@@ -3291,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3410,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3337,19 +3433,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3360,19 +3456,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3479,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3406,19 +3502,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3525,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3452,22 +3548,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>36</v>
@@ -3475,19 +3571,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3498,22 +3594,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>36</v>
@@ -3521,22 +3617,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>36</v>
@@ -3544,19 +3640,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3567,19 +3663,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3590,617 +3686,617 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4211,22 +4307,22 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>36</v>
@@ -4234,19 +4330,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4257,24 +4353,944 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="B170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2378,7 +2378,7 @@
         <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2387,7 +2387,7 @@
         <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2401,7 +2401,7 @@
         <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2410,7 +2410,7 @@
         <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2424,7 +2424,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2433,7 +2433,7 @@
         <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2447,7 +2447,7 @@
         <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2456,7 +2456,7 @@
         <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2470,7 +2470,7 @@
         <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2479,7 +2479,7 @@
         <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2493,7 +2493,7 @@
         <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2502,7 +2502,7 @@
         <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2516,7 +2516,7 @@
         <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2525,7 +2525,7 @@
         <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2539,7 +2539,7 @@
         <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2548,7 +2548,7 @@
         <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2571,7 +2571,7 @@
         <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2585,7 +2585,7 @@
         <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2594,7 +2594,7 @@
         <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2608,7 +2608,7 @@
         <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2617,7 +2617,7 @@
         <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2628,25 +2628,25 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -2654,19 +2654,19 @@
         <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>36</v>
@@ -2677,16 +2677,16 @@
         <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2700,16 +2700,16 @@
         <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2723,7 +2723,7 @@
         <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2732,7 +2732,7 @@
         <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2746,7 +2746,7 @@
         <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -2755,7 +2755,7 @@
         <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2769,7 +2769,7 @@
         <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -2778,7 +2778,7 @@
         <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2792,16 +2792,16 @@
         <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2815,7 +2815,7 @@
         <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2824,10 +2824,10 @@
         <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>36</v>
@@ -2838,7 +2838,7 @@
         <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2847,10 +2847,10 @@
         <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>36</v>
@@ -2861,7 +2861,7 @@
         <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2870,10 +2870,10 @@
         <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>36</v>
@@ -2884,7 +2884,7 @@
         <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2893,7 +2893,7 @@
         <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>132</v>
@@ -2907,19 +2907,19 @@
         <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>36</v>
@@ -2930,7 +2930,7 @@
         <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
@@ -2939,7 +2939,7 @@
         <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2953,19 @@
         <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>36</v>
@@ -2976,7 +2976,7 @@
         <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2985,7 +2985,7 @@
         <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>133</v>
@@ -2999,7 +2999,7 @@
         <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3008,10 +3008,10 @@
         <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>36</v>
@@ -3022,7 +3022,7 @@
         <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3031,10 +3031,10 @@
         <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>36</v>
@@ -3045,7 +3045,7 @@
         <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3054,10 +3054,10 @@
         <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>36</v>
@@ -3068,7 +3068,7 @@
         <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3077,10 +3077,10 @@
         <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>36</v>
@@ -3091,7 +3091,7 @@
         <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3100,10 +3100,10 @@
         <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>36</v>
@@ -3114,7 +3114,7 @@
         <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3123,10 +3123,10 @@
         <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>36</v>
@@ -3137,7 +3137,7 @@
         <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3146,10 +3146,10 @@
         <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>36</v>
@@ -3160,19 +3160,19 @@
         <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>36</v>
@@ -3183,7 +3183,7 @@
         <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -3192,7 +3192,7 @@
         <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3206,7 +3206,7 @@
         <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -3215,7 +3215,7 @@
         <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3229,16 +3229,16 @@
         <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3252,7 +3252,7 @@
         <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3261,10 +3261,10 @@
         <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>36</v>
@@ -3275,7 +3275,7 @@
         <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3284,10 +3284,10 @@
         <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>36</v>
@@ -3298,7 +3298,7 @@
         <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3307,10 +3307,10 @@
         <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>36</v>
@@ -3321,7 +3321,7 @@
         <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3330,7 +3330,7 @@
         <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>133</v>
@@ -3341,22 +3341,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>36</v>
@@ -3367,19 +3367,19 @@
         <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>36</v>
@@ -3390,16 +3390,16 @@
         <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3413,16 +3413,16 @@
         <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3436,7 +3436,7 @@
         <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3445,7 +3445,7 @@
         <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3459,7 +3459,7 @@
         <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3468,7 +3468,7 @@
         <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3482,7 +3482,7 @@
         <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3491,7 +3491,7 @@
         <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3505,16 +3505,16 @@
         <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3528,7 +3528,7 @@
         <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3537,10 +3537,10 @@
         <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>36</v>
@@ -3551,7 +3551,7 @@
         <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3560,10 +3560,10 @@
         <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>36</v>
@@ -3574,7 +3574,7 @@
         <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3583,10 +3583,10 @@
         <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>36</v>
@@ -3597,7 +3597,7 @@
         <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3606,7 +3606,7 @@
         <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>22</v>
@@ -3620,19 +3620,19 @@
         <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>36</v>
@@ -3643,7 +3643,7 @@
         <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3652,7 +3652,7 @@
         <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3666,19 +3666,19 @@
         <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>36</v>
@@ -3689,7 +3689,7 @@
         <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3698,7 +3698,7 @@
         <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>22</v>
@@ -3712,7 +3712,7 @@
         <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3721,10 +3721,10 @@
         <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>36</v>
@@ -3735,7 +3735,7 @@
         <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3744,10 +3744,10 @@
         <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>36</v>
@@ -3758,7 +3758,7 @@
         <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3767,10 +3767,10 @@
         <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>36</v>
@@ -3781,7 +3781,7 @@
         <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3790,10 +3790,10 @@
         <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>36</v>
@@ -3804,7 +3804,7 @@
         <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3813,10 +3813,10 @@
         <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>36</v>
@@ -3827,7 +3827,7 @@
         <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3836,10 +3836,10 @@
         <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>36</v>
@@ -3850,7 +3850,7 @@
         <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3859,7 +3859,7 @@
         <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>22</v>
@@ -3873,19 +3873,19 @@
         <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>36</v>
@@ -3896,7 +3896,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3905,7 +3905,7 @@
         <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3919,7 +3919,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3928,7 +3928,7 @@
         <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3942,16 +3942,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3965,7 +3965,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3974,10 +3974,10 @@
         <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>36</v>
@@ -3988,7 +3988,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3997,10 +3997,10 @@
         <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>36</v>
@@ -4011,7 +4011,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4020,10 +4020,10 @@
         <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>36</v>
@@ -4034,7 +4034,7 @@
         <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4043,7 +4043,7 @@
         <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>22</v>
@@ -4054,22 +4054,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>36</v>
@@ -4080,16 +4080,16 @@
         <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4103,16 +4103,16 @@
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4126,7 +4126,7 @@
         <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4135,7 +4135,7 @@
         <v>67</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4149,16 +4149,16 @@
         <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4172,16 +4172,16 @@
         <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4195,7 +4195,7 @@
         <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4204,7 +4204,7 @@
         <v>147</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4218,16 +4218,16 @@
         <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4241,7 +4241,7 @@
         <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -4250,7 +4250,7 @@
         <v>67</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4264,16 +4264,16 @@
         <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4287,7 +4287,7 @@
         <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -4296,7 +4296,7 @@
         <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4310,16 +4310,16 @@
         <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4333,7 +4333,7 @@
         <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4342,7 +4342,7 @@
         <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4356,7 +4356,7 @@
         <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4365,7 +4365,7 @@
         <v>147</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4379,7 +4379,7 @@
         <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4388,7 +4388,7 @@
         <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4402,16 +4402,16 @@
         <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4425,16 +4425,16 @@
         <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4448,7 +4448,7 @@
         <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4457,7 +4457,7 @@
         <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4471,7 +4471,7 @@
         <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4480,7 +4480,7 @@
         <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4494,7 +4494,7 @@
         <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4503,7 +4503,7 @@
         <v>147</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4517,16 +4517,16 @@
         <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4540,7 +4540,7 @@
         <v>146</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4549,7 +4549,7 @@
         <v>67</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4560,25 +4560,25 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173">
@@ -4586,19 +4586,19 @@
         <v>164</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>167</v>
@@ -4609,16 +4609,16 @@
         <v>164</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4632,16 +4632,16 @@
         <v>164</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4655,7 +4655,7 @@
         <v>164</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4664,7 +4664,7 @@
         <v>165</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4678,7 +4678,7 @@
         <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
@@ -4687,7 +4687,7 @@
         <v>165</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4701,7 +4701,7 @@
         <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -4710,7 +4710,7 @@
         <v>165</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4724,16 +4724,16 @@
         <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4747,7 +4747,7 @@
         <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4756,10 +4756,10 @@
         <v>165</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>167</v>
@@ -4770,7 +4770,7 @@
         <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4779,10 +4779,10 @@
         <v>165</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>167</v>
@@ -4793,7 +4793,7 @@
         <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4802,10 +4802,10 @@
         <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>167</v>
@@ -4816,7 +4816,7 @@
         <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4825,7 +4825,7 @@
         <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>166</v>
@@ -4839,19 +4839,19 @@
         <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>167</v>
@@ -4862,7 +4862,7 @@
         <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
@@ -4871,7 +4871,7 @@
         <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4885,19 +4885,19 @@
         <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>167</v>
@@ -4908,7 +4908,7 @@
         <v>164</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4917,7 +4917,7 @@
         <v>165</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>166</v>
@@ -4931,7 +4931,7 @@
         <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4940,10 +4940,10 @@
         <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>167</v>
@@ -4954,7 +4954,7 @@
         <v>164</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4963,10 +4963,10 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>167</v>
@@ -4977,7 +4977,7 @@
         <v>164</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4986,10 +4986,10 @@
         <v>165</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>167</v>
@@ -5000,7 +5000,7 @@
         <v>164</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5009,10 +5009,10 @@
         <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>167</v>
@@ -5023,7 +5023,7 @@
         <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5032,10 +5032,10 @@
         <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>167</v>
@@ -5046,7 +5046,7 @@
         <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5055,10 +5055,10 @@
         <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>167</v>
@@ -5069,7 +5069,7 @@
         <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5078,7 +5078,7 @@
         <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>166</v>
@@ -5092,19 +5092,19 @@
         <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>167</v>
@@ -5115,7 +5115,7 @@
         <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>17</v>
@@ -5124,7 +5124,7 @@
         <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5138,7 +5138,7 @@
         <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>17</v>
@@ -5147,7 +5147,7 @@
         <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5158,25 +5158,25 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199">
@@ -5184,19 +5184,19 @@
         <v>168</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>36</v>
@@ -5207,19 +5207,19 @@
         <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>36</v>
@@ -5230,16 +5230,16 @@
         <v>168</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5253,44 +5253,21 @@
         <v>168</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -4842,7 +4842,7 @@
         <v>99</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>165</v>
@@ -4865,7 +4865,7 @@
         <v>101</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>165</v>
@@ -4874,7 +4874,7 @@
         <v>102</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>167</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_077.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -610,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1711,7 +1723,7 @@
         <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1720,7 +1732,7 @@
         <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1734,7 +1746,7 @@
         <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1743,7 +1755,7 @@
         <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1757,7 +1769,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -2053,65 +2065,65 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2180,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2203,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2226,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2249,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2272,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2318,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2364,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2387,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2410,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2433,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2456,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2479,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2502,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2525,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2548,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2594,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2617,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2628,114 +2640,114 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>36</v>
@@ -2743,19 +2755,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2778,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2801,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2812,22 +2824,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>36</v>
@@ -2835,22 +2847,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>36</v>
@@ -2858,22 +2870,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>36</v>
@@ -2881,22 +2893,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>36</v>
@@ -2904,19 +2916,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2939,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2950,22 +2962,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>36</v>
@@ -2973,22 +2985,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>36</v>
@@ -2996,22 +3008,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>36</v>
@@ -3019,22 +3031,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>36</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3065,22 +3077,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>36</v>
@@ -3088,22 +3100,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>36</v>
@@ -3111,22 +3123,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>36</v>
@@ -3134,22 +3146,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>36</v>
@@ -3157,22 +3169,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>36</v>
@@ -3180,19 +3192,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,22 +3215,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>36</v>
@@ -3226,19 +3238,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3249,22 +3261,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>36</v>
@@ -3272,22 +3284,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>36</v>
@@ -3295,22 +3307,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>36</v>
@@ -3318,22 +3330,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>36</v>
@@ -3341,22 +3353,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>36</v>
@@ -3364,19 +3376,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3387,22 +3399,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>36</v>
@@ -3410,19 +3422,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3433,22 +3445,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>36</v>
@@ -3456,22 +3468,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>36</v>
@@ -3479,22 +3491,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>36</v>
@@ -3502,19 +3514,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3525,22 +3537,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>36</v>
@@ -3548,19 +3560,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3571,22 +3583,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>36</v>
@@ -3594,19 +3606,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>22</v>
@@ -3617,19 +3629,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3640,19 +3652,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3663,22 +3675,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>36</v>
@@ -3686,22 +3698,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>36</v>
@@ -3709,22 +3721,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>36</v>
@@ -3732,22 +3744,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>36</v>
@@ -3755,22 +3767,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>36</v>
@@ -3778,19 +3790,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>22</v>
@@ -3801,19 +3813,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3824,22 +3836,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>36</v>
@@ -3847,19 +3859,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>22</v>
@@ -3870,22 +3882,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>36</v>
@@ -3893,19 +3905,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3916,22 +3928,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>36</v>
@@ -3939,19 +3951,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3962,19 +3974,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>22</v>
@@ -3985,19 +3997,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4008,19 +4020,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>22</v>
@@ -4031,19 +4043,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>22</v>
@@ -4054,19 +4066,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4077,19 +4089,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4100,19 +4112,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4123,19 +4135,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4146,22 +4158,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>36</v>
@@ -4169,19 +4181,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4192,22 +4204,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>36</v>
@@ -4215,22 +4227,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>36</v>
@@ -4238,19 +4250,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4261,19 +4273,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4284,19 +4296,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4307,19 +4319,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4330,19 +4342,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4353,19 +4365,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4376,19 +4388,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4399,19 +4411,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4422,19 +4434,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4445,19 +4457,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4468,19 +4480,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4491,19 +4503,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4514,19 +4526,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4537,19 +4549,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4560,600 +4572,600 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198">
@@ -5161,22 +5173,22 @@
         <v>168</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E198" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="199">
@@ -5184,22 +5196,22 @@
         <v>168</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G199" s="2" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200">
@@ -5207,22 +5219,22 @@
         <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201">
@@ -5230,22 +5242,22 @@
         <v>168</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
     </row>
     <row r="202">
@@ -5253,21 +5265,251 @@
         <v>168</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="C210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>36</v>
       </c>
     </row>
